--- a/send_list.xlsx
+++ b/send_list.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>ok</t>
   </si>
@@ -259,38 +259,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -312,23 +313,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -337,7 +338,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -348,34 +349,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -384,17 +385,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A1:AU5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Таблица2" headerRowCount="1" id="1" name="Таблица2" ref="A1:AU5" totalsRowShown="0">
   <autoFilter ref="A1:AU5"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ok"/>
@@ -405,7 +401,7 @@
     <tableColumn id="6" name="Ауд"/>
     <tableColumn id="7" name="Школа"/>
     <tableColumn id="8" name="Год р."/>
-    <tableColumn id="9" name="email" dataCellStyle="Гиперссылка"/>
+    <tableColumn dataCellStyle="Гиперссылка" id="9" name="email"/>
     <tableColumn id="10" name="пол"/>
     <tableColumn id="11" name="а"/>
     <tableColumn id="12" name="subject">
@@ -429,22 +425,22 @@
     <tableColumn id="24" name="mx7"/>
     <tableColumn id="25" name="mx8"/>
     <tableColumn id="26" name="mx9"/>
-    <tableColumn id="27" name="mxtot" dataDxfId="12">
+    <tableColumn dataDxfId="12" id="27" name="mxtot">
       <calculatedColumnFormula>SUM(R2:Z2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="pl1" dataDxfId="11"/>
-    <tableColumn id="29" name="pl2" dataDxfId="10"/>
-    <tableColumn id="30" name="pl3" dataDxfId="9"/>
-    <tableColumn id="31" name="pl4" dataDxfId="8"/>
-    <tableColumn id="32" name="pl5" dataDxfId="7"/>
-    <tableColumn id="33" name="pl6" dataDxfId="6"/>
-    <tableColumn id="34" name="pl7" dataDxfId="5"/>
-    <tableColumn id="35" name="pl8" dataDxfId="4"/>
-    <tableColumn id="36" name="pl9" dataDxfId="3"/>
-    <tableColumn id="37" name="pltot" dataDxfId="2">
+    <tableColumn dataDxfId="11" id="28" name="pl1"/>
+    <tableColumn dataDxfId="10" id="29" name="pl2"/>
+    <tableColumn dataDxfId="9" id="30" name="pl3"/>
+    <tableColumn dataDxfId="8" id="31" name="pl4"/>
+    <tableColumn dataDxfId="7" id="32" name="pl5"/>
+    <tableColumn dataDxfId="6" id="33" name="pl6"/>
+    <tableColumn dataDxfId="5" id="34" name="pl7"/>
+    <tableColumn dataDxfId="4" id="35" name="pl8"/>
+    <tableColumn dataDxfId="3" id="36" name="pl9"/>
+    <tableColumn dataDxfId="2" id="37" name="pltot">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="bl1" dataDxfId="1">
+    <tableColumn dataDxfId="1" id="38" name="bl1">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" name="bl2">
@@ -471,11 +467,11 @@
     <tableColumn id="46" name="bl9">
       <calculatedColumnFormula>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" name="bltot" dataDxfId="0">
+    <tableColumn dataDxfId="0" id="47" name="bltot">
       <calculatedColumnFormula>SUM(AL2:AT2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -765,43 +761,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="3" customWidth="1"/>
-    <col min="28" max="36" width="5.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.42578125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="5.85546875" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="46" width="5.85546875" customWidth="1"/>
-    <col min="47" max="47" width="7.42578125" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.5703125"/>
+    <col customWidth="1" max="3" min="3" width="18"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.5703125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10.42578125"/>
+    <col customWidth="1" max="6" min="6" width="6.5703125"/>
+    <col customWidth="1" max="7" min="7" width="9.28515625"/>
+    <col customWidth="1" max="8" min="8" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="17"/>
+    <col customWidth="1" max="10" min="10" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" width="4.140625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="54.140625"/>
+    <col customWidth="1" max="13" min="13" width="4.140625"/>
+    <col customWidth="1" max="14" min="14" width="9.5703125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="41"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="17.85546875"/>
+    <col customWidth="1" max="17" min="17" width="5.140625"/>
+    <col customWidth="1" max="26" min="18" width="6.85546875"/>
+    <col customWidth="1" max="27" min="27" style="3" width="8.42578125"/>
+    <col customWidth="1" max="36" min="28" style="1" width="5.85546875"/>
+    <col customWidth="1" max="37" min="37" style="3" width="7.42578125"/>
+    <col customWidth="1" max="38" min="38" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="39" min="39" width="7.42578125"/>
+    <col customWidth="1" max="46" min="40" width="5.85546875"/>
+    <col customWidth="1" max="47" min="47" style="3" width="7.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,10 +944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:47">
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -960,13 +957,13 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>305</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>123</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2001</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -975,13 +972,13 @@
       <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="M2">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N2" t="s">
         <v>53</v>
@@ -992,40 +989,40 @@
       <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
       <c r="AA2" s="3">
         <f>SUM(R2:Z2)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB2" s="1" t="s">
         <v>56</v>
@@ -1050,50 +1047,53 @@
       </c>
       <c r="AK2" s="3">
         <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</f>
-        <v>2.8</v>
+        <v/>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AT5" si="0">ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
-        <v>2</v>
+        <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
+        <v/>
       </c>
       <c r="AM2">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>ROUND(IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))*S2,2)</f>
+        <v/>
       </c>
       <c r="AN2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))*T2,2)</f>
+        <v/>
       </c>
       <c r="AO2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))*U2,2)</f>
+        <v/>
       </c>
       <c r="AP2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))*V2,2)</f>
+        <v/>
       </c>
       <c r="AQ2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))*W2,2)</f>
+        <v/>
       </c>
       <c r="AR2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))*X2,2)</f>
+        <v/>
       </c>
       <c r="AS2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))*Y2,2)</f>
+        <v/>
       </c>
       <c r="AT2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</f>
+        <v/>
       </c>
       <c r="AU2" s="3">
         <f>SUM(AL2:AT2)</f>
-        <v>7.4</v>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
@@ -1106,13 +1106,13 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>306</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>234</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2002</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1121,13 +1121,13 @@
       <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="M3">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -1138,40 +1138,40 @@
       <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-      <c r="Z3">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
       <c r="AA3" s="3">
         <f>SUM(R3:Z3)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -1196,50 +1196,50 @@
       </c>
       <c r="AK3" s="3">
         <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))+IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))+IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))+IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))+IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))+IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))+IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))+IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))+IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?"))))))))),2)</f>
-        <v>3.5</v>
+        <v/>
       </c>
       <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))*R3,2)</f>
+        <v/>
       </c>
       <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))*S3,2)</f>
+        <v/>
       </c>
       <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))*T3,2)</f>
+        <v/>
       </c>
       <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))*U3,2)</f>
+        <v/>
       </c>
       <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))*V3,2)</f>
+        <v/>
       </c>
       <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>ROUND(IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))*W3,2)</f>
+        <v/>
       </c>
       <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))*X3,2)</f>
+        <v/>
       </c>
       <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))*Y3,2)</f>
+        <v/>
       </c>
       <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?")))))))))*Z3,2)</f>
+        <v/>
       </c>
       <c r="AU3" s="3">
         <f>SUM(AL3:AT3)</f>
-        <v>8.5</v>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1255,13 +1255,13 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>305</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>123</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2003</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1270,13 +1270,13 @@
       <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="M4">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -1287,40 +1287,40 @@
       <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="n">
         <v>2</v>
       </c>
       <c r="AA4" s="3">
         <f>SUM(R4:Z4)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB4" s="1" t="s">
         <v>58</v>
@@ -1345,50 +1345,53 @@
       </c>
       <c r="AK4" s="3">
         <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))+IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))+IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))+IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))+IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))+IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))+IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))+IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))+IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?"))))))))),2)</f>
-        <v>5.0999999999999996</v>
+        <v/>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))*R4,2)</f>
+        <v/>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))*S4,2)</f>
+        <v/>
       </c>
       <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))*T4,2)</f>
+        <v/>
       </c>
       <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))*U4,2)</f>
+        <v/>
       </c>
       <c r="AP4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))*V4,2)</f>
+        <v/>
       </c>
       <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>ROUND(IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))*W4,2)</f>
+        <v/>
       </c>
       <c r="AR4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))*X4,2)</f>
+        <v/>
       </c>
       <c r="AS4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))*Y4,2)</f>
+        <v/>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?")))))))))*Z4,2)</f>
+        <v/>
       </c>
       <c r="AU4" s="3">
         <f>SUM(AL4:AT4)</f>
-        <v>12.3</v>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1401,13 +1404,13 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>207</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>432</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>2004</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1419,13 +1422,13 @@
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="M5">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -1436,40 +1439,40 @@
       <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
         <v>2</v>
       </c>
       <c r="AA5" s="3">
         <f>SUM(R5:Z5)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB5" s="1" t="s">
         <v>56</v>
@@ -1494,47 +1497,47 @@
       </c>
       <c r="AK5" s="3">
         <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))+IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))+IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))+IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))+IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))+IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))+IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))+IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))+IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?"))))))))),2)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))*R5,2)</f>
+        <v/>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))*S5,2)</f>
+        <v/>
       </c>
       <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))*T5,2)</f>
+        <v/>
       </c>
       <c r="AO5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))*U5,2)</f>
+        <v/>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))*V5,2)</f>
+        <v/>
       </c>
       <c r="AQ5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))*W5,2)</f>
+        <v/>
       </c>
       <c r="AR5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))*X5,2)</f>
+        <v/>
       </c>
       <c r="AS5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))*Y5,2)</f>
+        <v/>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?")))))))))*Z5,2)</f>
+        <v/>
       </c>
       <c r="AU5" s="3">
         <f>SUM(AL5:AT5)</f>
-        <v>7</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1544,8 +1547,8 @@
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>

--- a/send_list.xlsx
+++ b/send_list.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="6600"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>ok</t>
   </si>
@@ -259,39 +259,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -313,23 +312,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -338,7 +337,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -349,34 +348,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -385,12 +384,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Таблица2" headerRowCount="1" id="1" name="Таблица2" ref="A1:AU5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A1:AU5" totalsRowShown="0">
   <autoFilter ref="A1:AU5"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ok"/>
@@ -401,7 +405,7 @@
     <tableColumn id="6" name="Ауд"/>
     <tableColumn id="7" name="Школа"/>
     <tableColumn id="8" name="Год р."/>
-    <tableColumn dataCellStyle="Гиперссылка" id="9" name="email"/>
+    <tableColumn id="9" name="email" dataCellStyle="Гиперссылка"/>
     <tableColumn id="10" name="пол"/>
     <tableColumn id="11" name="а"/>
     <tableColumn id="12" name="subject">
@@ -425,22 +429,22 @@
     <tableColumn id="24" name="mx7"/>
     <tableColumn id="25" name="mx8"/>
     <tableColumn id="26" name="mx9"/>
-    <tableColumn dataDxfId="12" id="27" name="mxtot">
+    <tableColumn id="27" name="mxtot" dataDxfId="12">
       <calculatedColumnFormula>SUM(R2:Z2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="11" id="28" name="pl1"/>
-    <tableColumn dataDxfId="10" id="29" name="pl2"/>
-    <tableColumn dataDxfId="9" id="30" name="pl3"/>
-    <tableColumn dataDxfId="8" id="31" name="pl4"/>
-    <tableColumn dataDxfId="7" id="32" name="pl5"/>
-    <tableColumn dataDxfId="6" id="33" name="pl6"/>
-    <tableColumn dataDxfId="5" id="34" name="pl7"/>
-    <tableColumn dataDxfId="4" id="35" name="pl8"/>
-    <tableColumn dataDxfId="3" id="36" name="pl9"/>
-    <tableColumn dataDxfId="2" id="37" name="pltot">
+    <tableColumn id="28" name="pl1" dataDxfId="11"/>
+    <tableColumn id="29" name="pl2" dataDxfId="10"/>
+    <tableColumn id="30" name="pl3" dataDxfId="9"/>
+    <tableColumn id="31" name="pl4" dataDxfId="8"/>
+    <tableColumn id="32" name="pl5" dataDxfId="7"/>
+    <tableColumn id="33" name="pl6" dataDxfId="6"/>
+    <tableColumn id="34" name="pl7" dataDxfId="5"/>
+    <tableColumn id="35" name="pl8" dataDxfId="4"/>
+    <tableColumn id="36" name="pl9" dataDxfId="3"/>
+    <tableColumn id="37" name="pltot" dataDxfId="2">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="1" id="38" name="bl1">
+    <tableColumn id="38" name="bl1" dataDxfId="1">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" name="bl2">
@@ -467,11 +471,11 @@
     <tableColumn id="46" name="bl9">
       <calculatedColumnFormula>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="0" id="47" name="bltot">
+    <tableColumn id="47" name="bltot" dataDxfId="0">
       <calculatedColumnFormula>SUM(AL2:AT2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -761,47 +765,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5.28515625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.5703125"/>
-    <col customWidth="1" max="3" min="3" width="18"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.5703125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="10.42578125"/>
-    <col customWidth="1" max="6" min="6" width="6.5703125"/>
-    <col customWidth="1" max="7" min="7" width="9.28515625"/>
-    <col customWidth="1" max="8" min="8" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="17"/>
-    <col customWidth="1" max="10" min="10" width="6.5703125"/>
-    <col customWidth="1" max="11" min="11" width="4.140625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="54.140625"/>
-    <col customWidth="1" max="13" min="13" width="4.140625"/>
-    <col customWidth="1" max="14" min="14" width="9.5703125"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" width="41"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" width="17.85546875"/>
-    <col customWidth="1" max="17" min="17" width="5.140625"/>
-    <col customWidth="1" max="26" min="18" width="6.85546875"/>
-    <col customWidth="1" max="27" min="27" style="3" width="8.42578125"/>
-    <col customWidth="1" max="36" min="28" style="1" width="5.85546875"/>
-    <col customWidth="1" max="37" min="37" style="3" width="7.42578125"/>
-    <col customWidth="1" max="38" min="38" width="5.85546875"/>
-    <col bestFit="1" customWidth="1" max="39" min="39" width="7.42578125"/>
-    <col customWidth="1" max="46" min="40" width="5.85546875"/>
-    <col customWidth="1" max="47" min="47" style="3" width="7.42578125"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="3" customWidth="1"/>
+    <col min="28" max="36" width="5.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="46" width="5.85546875" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -957,13 +957,13 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>305</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>123</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2001</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -972,13 +972,13 @@
       <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="str">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M2">
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M2" t="str">
         <f>"|"</f>
-        <v/>
+        <v>|</v>
       </c>
       <c r="N2" t="s">
         <v>53</v>
@@ -989,40 +989,40 @@
       <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="str">
         <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
+        <v>|</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
         <v>2</v>
       </c>
       <c r="AA2" s="3">
         <f>SUM(R2:Z2)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>56</v>
@@ -1047,50 +1047,50 @@
       </c>
       <c r="AK2" s="3">
         <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</f>
-        <v/>
+        <v>2.8</v>
       </c>
       <c r="AL2">
-        <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
-        <v/>
+        <f t="shared" ref="AL2:AT5" si="0">ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
+        <v>2</v>
       </c>
       <c r="AM2">
-        <f>ROUND(IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))*S2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.4</v>
       </c>
       <c r="AN2">
-        <f>ROUND(IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))*T2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <f>ROUND(IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))*U2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <f>ROUND(IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))*V2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <f>ROUND(IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))*W2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AR2">
-        <f>ROUND(IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))*X2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <f>ROUND(IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))*Y2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <f>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU2" s="3">
         <f>SUM(AL2:AT2)</f>
-        <v/>
+        <v>7.4</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1106,13 +1106,13 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>306</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>234</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2002</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1121,13 +1121,13 @@
       <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="str">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M3">
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M3" t="str">
         <f>"|"</f>
-        <v/>
+        <v>|</v>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -1138,40 +1138,40 @@
       <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="str">
         <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="n">
+        <v>|</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3" s="3">
         <f>SUM(R3:Z3)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -1196,53 +1196,50 @@
       </c>
       <c r="AK3" s="3">
         <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))+IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))+IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))+IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))+IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))+IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))+IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))+IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))+IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?"))))))))),2)</f>
-        <v/>
+        <v>3.5</v>
       </c>
       <c r="AL3">
-        <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))*R3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <f>ROUND(IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))*S3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <f>ROUND(IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))*T3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <f>ROUND(IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))*U3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AP3">
-        <f>ROUND(IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))*V3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <f>ROUND(IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))*W3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="AR3">
-        <f>ROUND(IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))*X3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <f>ROUND(IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))*Y3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <f>ROUND(IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?")))))))))*Z3,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU3" s="3">
         <f>SUM(AL3:AT3)</f>
-        <v/>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -1255,13 +1252,13 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>305</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>123</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2003</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1270,13 +1267,13 @@
       <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="str">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M4">
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M4" t="str">
         <f>"|"</f>
-        <v/>
+        <v>|</v>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -1287,40 +1284,40 @@
       <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="str">
         <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
+        <v>|</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
         <v>2</v>
       </c>
       <c r="AA4" s="3">
         <f>SUM(R4:Z4)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>58</v>
@@ -1345,53 +1342,50 @@
       </c>
       <c r="AK4" s="3">
         <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))+IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))+IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))+IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))+IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))+IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))+IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))+IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))+IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?"))))))))),2)</f>
-        <v/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AL4">
-        <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))*R4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <f>ROUND(IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))*S4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <f>ROUND(IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))*T4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AO4">
-        <f>ROUND(IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))*U4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AP4">
-        <f>ROUND(IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))*V4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <f>ROUND(IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))*W4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="AR4">
-        <f>ROUND(IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))*X4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AS4">
-        <f>ROUND(IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))*Y4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <f>ROUND(IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?")))))))))*Z4,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU4" s="3">
         <f>SUM(AL4:AT4)</f>
-        <v/>
+        <v>12.3</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1404,13 +1398,13 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>207</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>432</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2004</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1422,13 +1416,13 @@
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="str">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M5">
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M5" t="str">
         <f>"|"</f>
-        <v/>
+        <v>|</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -1439,40 +1433,40 @@
       <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="str">
         <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="n">
+        <v>|</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5" s="3">
         <f>SUM(R5:Z5)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>56</v>
@@ -1497,47 +1491,47 @@
       </c>
       <c r="AK5" s="3">
         <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))+IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))+IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))+IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))+IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))+IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))+IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))+IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))+IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?"))))))))),2)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AL5">
-        <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))*R5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AM5">
-        <f>ROUND(IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))*S5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AN5">
-        <f>ROUND(IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))*T5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <f>ROUND(IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))*U5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <f>ROUND(IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))*V5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <f>ROUND(IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))*W5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <f>ROUND(IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))*X5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <f>ROUND(IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))*Y5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <f>ROUND(IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?")))))))))*Z5,2)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU5" s="3">
         <f>SUM(AL5:AT5)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1547,8 +1541,8 @@
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>

--- a/send_list.xlsx
+++ b/send_list.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="6600"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>ok</t>
   </si>
@@ -259,38 +259,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -312,23 +313,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -337,7 +338,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -348,34 +349,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -384,17 +385,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A1:AU5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Таблица2" headerRowCount="1" id="1" name="Таблица2" ref="A1:AU5" totalsRowShown="0">
   <autoFilter ref="A1:AU5"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ok"/>
@@ -405,7 +401,7 @@
     <tableColumn id="6" name="Ауд"/>
     <tableColumn id="7" name="Школа"/>
     <tableColumn id="8" name="Год р."/>
-    <tableColumn id="9" name="email" dataCellStyle="Гиперссылка"/>
+    <tableColumn dataCellStyle="Гиперссылка" id="9" name="email"/>
     <tableColumn id="10" name="пол"/>
     <tableColumn id="11" name="а"/>
     <tableColumn id="12" name="subject">
@@ -429,22 +425,22 @@
     <tableColumn id="24" name="mx7"/>
     <tableColumn id="25" name="mx8"/>
     <tableColumn id="26" name="mx9"/>
-    <tableColumn id="27" name="mxtot" dataDxfId="12">
+    <tableColumn dataDxfId="12" id="27" name="mxtot">
       <calculatedColumnFormula>SUM(R2:Z2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="pl1" dataDxfId="11"/>
-    <tableColumn id="29" name="pl2" dataDxfId="10"/>
-    <tableColumn id="30" name="pl3" dataDxfId="9"/>
-    <tableColumn id="31" name="pl4" dataDxfId="8"/>
-    <tableColumn id="32" name="pl5" dataDxfId="7"/>
-    <tableColumn id="33" name="pl6" dataDxfId="6"/>
-    <tableColumn id="34" name="pl7" dataDxfId="5"/>
-    <tableColumn id="35" name="pl8" dataDxfId="4"/>
-    <tableColumn id="36" name="pl9" dataDxfId="3"/>
-    <tableColumn id="37" name="pltot" dataDxfId="2">
+    <tableColumn dataDxfId="11" id="28" name="pl1"/>
+    <tableColumn dataDxfId="10" id="29" name="pl2"/>
+    <tableColumn dataDxfId="9" id="30" name="pl3"/>
+    <tableColumn dataDxfId="8" id="31" name="pl4"/>
+    <tableColumn dataDxfId="7" id="32" name="pl5"/>
+    <tableColumn dataDxfId="6" id="33" name="pl6"/>
+    <tableColumn dataDxfId="5" id="34" name="pl7"/>
+    <tableColumn dataDxfId="4" id="35" name="pl8"/>
+    <tableColumn dataDxfId="3" id="36" name="pl9"/>
+    <tableColumn dataDxfId="2" id="37" name="pltot">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="bl1" dataDxfId="1">
+    <tableColumn dataDxfId="1" id="38" name="bl1">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" name="bl2">
@@ -471,11 +467,11 @@
     <tableColumn id="46" name="bl9">
       <calculatedColumnFormula>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" name="bltot" dataDxfId="0">
+    <tableColumn dataDxfId="0" id="47" name="bltot">
       <calculatedColumnFormula>SUM(AL2:AT2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -765,43 +761,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="3" customWidth="1"/>
-    <col min="28" max="36" width="5.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.42578125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="5.85546875" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="46" width="5.85546875" customWidth="1"/>
-    <col min="47" max="47" width="7.42578125" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.5703125"/>
+    <col customWidth="1" max="3" min="3" width="18"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.5703125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10.42578125"/>
+    <col customWidth="1" max="6" min="6" width="6.5703125"/>
+    <col customWidth="1" max="7" min="7" width="9.28515625"/>
+    <col customWidth="1" max="8" min="8" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="17"/>
+    <col customWidth="1" max="10" min="10" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" width="4.140625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="54.140625"/>
+    <col customWidth="1" max="13" min="13" width="4.140625"/>
+    <col customWidth="1" max="14" min="14" width="9.5703125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="41"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="17.85546875"/>
+    <col customWidth="1" max="17" min="17" width="5.140625"/>
+    <col customWidth="1" max="26" min="18" width="6.85546875"/>
+    <col customWidth="1" max="27" min="27" style="3" width="8.42578125"/>
+    <col customWidth="1" max="36" min="28" style="1" width="5.85546875"/>
+    <col customWidth="1" max="37" min="37" style="3" width="7.42578125"/>
+    <col customWidth="1" max="38" min="38" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="39" min="39" width="7.42578125"/>
+    <col customWidth="1" max="46" min="40" width="5.85546875"/>
+    <col customWidth="1" max="47" min="47" style="3" width="7.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -957,13 +960,13 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>305</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>123</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2001</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -972,13 +975,13 @@
       <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="M2">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N2" t="s">
         <v>53</v>
@@ -989,40 +992,40 @@
       <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
       <c r="AA2" s="3">
         <f>SUM(R2:Z2)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB2" s="1" t="s">
         <v>56</v>
@@ -1047,50 +1050,50 @@
       </c>
       <c r="AK2" s="3">
         <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</f>
-        <v>2.8</v>
+        <v/>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AT5" si="0">ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
-        <v>2</v>
+        <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
+        <v/>
       </c>
       <c r="AM2">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>ROUND(IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))*S2,2)</f>
+        <v/>
       </c>
       <c r="AN2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))*T2,2)</f>
+        <v/>
       </c>
       <c r="AO2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))*U2,2)</f>
+        <v/>
       </c>
       <c r="AP2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))*V2,2)</f>
+        <v/>
       </c>
       <c r="AQ2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))*W2,2)</f>
+        <v/>
       </c>
       <c r="AR2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))*X2,2)</f>
+        <v/>
       </c>
       <c r="AS2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))*Y2,2)</f>
+        <v/>
       </c>
       <c r="AT2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</f>
+        <v/>
       </c>
       <c r="AU2" s="3">
         <f>SUM(AL2:AT2)</f>
-        <v>7.4</v>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1106,13 +1109,13 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>306</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>234</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2002</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1121,13 +1124,13 @@
       <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="M3">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -1138,40 +1141,40 @@
       <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-      <c r="Z3">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
       <c r="AA3" s="3">
         <f>SUM(R3:Z3)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -1196,50 +1199,53 @@
       </c>
       <c r="AK3" s="3">
         <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))+IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))+IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))+IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))+IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))+IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))+IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))+IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))+IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?"))))))))),2)</f>
-        <v>3.5</v>
+        <v/>
       </c>
       <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))*R3,2)</f>
+        <v/>
       </c>
       <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))*S3,2)</f>
+        <v/>
       </c>
       <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))*T3,2)</f>
+        <v/>
       </c>
       <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))*U3,2)</f>
+        <v/>
       </c>
       <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))*V3,2)</f>
+        <v/>
       </c>
       <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>ROUND(IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))*W3,2)</f>
+        <v/>
       </c>
       <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))*X3,2)</f>
+        <v/>
       </c>
       <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))*Y3,2)</f>
+        <v/>
       </c>
       <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?")))))))))*Z3,2)</f>
+        <v/>
       </c>
       <c r="AU3" s="3">
         <f>SUM(AL3:AT3)</f>
-        <v>8.5</v>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -1252,13 +1258,13 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>305</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>123</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2003</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1267,13 +1273,13 @@
       <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="M4">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -1284,40 +1290,40 @@
       <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="n">
         <v>2</v>
       </c>
       <c r="AA4" s="3">
         <f>SUM(R4:Z4)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB4" s="1" t="s">
         <v>58</v>
@@ -1342,50 +1348,53 @@
       </c>
       <c r="AK4" s="3">
         <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))+IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))+IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))+IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))+IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))+IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))+IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))+IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))+IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?"))))))))),2)</f>
-        <v>5.0999999999999996</v>
+        <v/>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))*R4,2)</f>
+        <v/>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))*S4,2)</f>
+        <v/>
       </c>
       <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))*T4,2)</f>
+        <v/>
       </c>
       <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))*U4,2)</f>
+        <v/>
       </c>
       <c r="AP4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))*V4,2)</f>
+        <v/>
       </c>
       <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>ROUND(IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))*W4,2)</f>
+        <v/>
       </c>
       <c r="AR4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))*X4,2)</f>
+        <v/>
       </c>
       <c r="AS4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))*Y4,2)</f>
+        <v/>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?")))))))))*Z4,2)</f>
+        <v/>
       </c>
       <c r="AU4" s="3">
         <f>SUM(AL4:AT4)</f>
-        <v>12.3</v>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1398,13 +1407,13 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>207</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>432</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>2004</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1416,13 +1425,13 @@
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5">
         <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v>Собеседования в 7-й математический класс 179-й школы</v>
-      </c>
-      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="M5">
         <f>"|"</f>
-        <v>|</v>
+        <v/>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -1433,40 +1442,40 @@
       <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
         <f>"|"</f>
-        <v>|</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
         <v>2</v>
       </c>
       <c r="AA5" s="3">
         <f>SUM(R5:Z5)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="AB5" s="1" t="s">
         <v>56</v>
@@ -1491,47 +1500,47 @@
       </c>
       <c r="AK5" s="3">
         <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))+IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))+IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))+IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))+IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))+IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))+IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))+IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))+IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?"))))))))),2)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))*R5,2)</f>
+        <v/>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUND(IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))*S5,2)</f>
+        <v/>
       </c>
       <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUND(IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))*T5,2)</f>
+        <v/>
       </c>
       <c r="AO5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))*U5,2)</f>
+        <v/>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))*V5,2)</f>
+        <v/>
       </c>
       <c r="AQ5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))*W5,2)</f>
+        <v/>
       </c>
       <c r="AR5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))*X5,2)</f>
+        <v/>
       </c>
       <c r="AS5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))*Y5,2)</f>
+        <v/>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUND(IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?")))))))))*Z5,2)</f>
+        <v/>
       </c>
       <c r="AU5" s="3">
         <f>SUM(AL5:AT5)</f>
-        <v>7</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1541,8 +1550,8 @@
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>

--- a/send_list.xlsx
+++ b/send_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="17895" windowHeight="6855"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="111">
   <si>
     <t>ok</t>
   </si>
@@ -254,44 +255,136 @@
   </si>
   <si>
     <t>sb_18.03_Родимина_Екатерина_i0138.pdf</t>
+  </si>
+  <si>
+    <t>sh57+i005@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i006@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i007@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i008@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i009@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0010@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0011@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0012@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0013@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0014@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0015@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0016@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0017@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0018@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0019@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0020@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0022@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0023@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0024@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0025@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0026@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0027@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0028@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0029@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0030@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0031@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0032@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0033@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0034@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0035@ya.ru</t>
+  </si>
+  <si>
+    <t>sh57+i0036@ya.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -313,23 +406,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -338,7 +432,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -349,34 +443,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -384,14 +478,22 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Таблица2" headerRowCount="1" id="1" name="Таблица2" ref="A1:AU5" totalsRowShown="0">
-  <autoFilter ref="A1:AU5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A1:AU37" totalsRowShown="0">
+  <autoFilter ref="A1:AU37"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ok"/>
     <tableColumn id="2" name="ID"/>
@@ -401,7 +503,7 @@
     <tableColumn id="6" name="Ауд"/>
     <tableColumn id="7" name="Школа"/>
     <tableColumn id="8" name="Год р."/>
-    <tableColumn dataCellStyle="Гиперссылка" id="9" name="email"/>
+    <tableColumn id="9" name="email" dataDxfId="13" dataCellStyle="Гиперссылка"/>
     <tableColumn id="10" name="пол"/>
     <tableColumn id="11" name="а"/>
     <tableColumn id="12" name="subject">
@@ -425,22 +527,22 @@
     <tableColumn id="24" name="mx7"/>
     <tableColumn id="25" name="mx8"/>
     <tableColumn id="26" name="mx9"/>
-    <tableColumn dataDxfId="12" id="27" name="mxtot">
+    <tableColumn id="27" name="mxtot" dataDxfId="12">
       <calculatedColumnFormula>SUM(R2:Z2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="11" id="28" name="pl1"/>
-    <tableColumn dataDxfId="10" id="29" name="pl2"/>
-    <tableColumn dataDxfId="9" id="30" name="pl3"/>
-    <tableColumn dataDxfId="8" id="31" name="pl4"/>
-    <tableColumn dataDxfId="7" id="32" name="pl5"/>
-    <tableColumn dataDxfId="6" id="33" name="pl6"/>
-    <tableColumn dataDxfId="5" id="34" name="pl7"/>
-    <tableColumn dataDxfId="4" id="35" name="pl8"/>
-    <tableColumn dataDxfId="3" id="36" name="pl9"/>
-    <tableColumn dataDxfId="2" id="37" name="pltot">
+    <tableColumn id="28" name="pl1" dataDxfId="11"/>
+    <tableColumn id="29" name="pl2" dataDxfId="10"/>
+    <tableColumn id="30" name="pl3" dataDxfId="9"/>
+    <tableColumn id="31" name="pl4" dataDxfId="8"/>
+    <tableColumn id="32" name="pl5" dataDxfId="7"/>
+    <tableColumn id="33" name="pl6" dataDxfId="6"/>
+    <tableColumn id="34" name="pl7" dataDxfId="5"/>
+    <tableColumn id="35" name="pl8" dataDxfId="4"/>
+    <tableColumn id="36" name="pl9" dataDxfId="3"/>
+    <tableColumn id="37" name="pltot" dataDxfId="2">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="1" id="38" name="bl1">
+    <tableColumn id="38" name="bl1" dataDxfId="1">
       <calculatedColumnFormula>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" name="bl2">
@@ -467,11 +569,11 @@
     <tableColumn id="46" name="bl9">
       <calculatedColumnFormula>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="0" id="47" name="bltot">
+    <tableColumn id="47" name="bltot" dataDxfId="0">
       <calculatedColumnFormula>SUM(AL2:AT2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -761,63 +863,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AU5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5.28515625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.5703125"/>
-    <col customWidth="1" max="3" min="3" width="18"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.5703125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="10.42578125"/>
-    <col customWidth="1" max="6" min="6" width="6.5703125"/>
-    <col customWidth="1" max="7" min="7" width="9.28515625"/>
-    <col customWidth="1" max="8" min="8" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="17"/>
-    <col customWidth="1" max="10" min="10" width="6.5703125"/>
-    <col customWidth="1" max="11" min="11" width="4.140625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="54.140625"/>
-    <col customWidth="1" max="13" min="13" width="4.140625"/>
-    <col customWidth="1" max="14" min="14" width="9.5703125"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" width="41"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" width="17.85546875"/>
-    <col customWidth="1" max="17" min="17" width="5.140625"/>
-    <col customWidth="1" max="26" min="18" width="6.85546875"/>
-    <col customWidth="1" max="27" min="27" style="3" width="8.42578125"/>
-    <col customWidth="1" max="36" min="28" style="1" width="5.85546875"/>
-    <col customWidth="1" max="37" min="37" style="3" width="7.42578125"/>
-    <col customWidth="1" max="38" min="38" width="5.85546875"/>
-    <col bestFit="1" customWidth="1" max="39" min="39" width="7.42578125"/>
-    <col customWidth="1" max="46" min="40" width="5.85546875"/>
-    <col customWidth="1" max="47" min="47" style="3" width="7.42578125"/>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="41" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="5" customWidth="1"/>
+    <col min="18" max="26" width="6.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="4" customWidth="1"/>
+    <col min="28" max="36" width="5.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" style="5" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="46" width="5.85546875" style="5" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -826,7 +924,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -880,7 +978,7 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -910,7 +1008,7 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AL1" t="s">
@@ -940,14 +1038,12 @@
       <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2"/>
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -960,28 +1056,28 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>305</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>123</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2001</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="L2">
-        <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M2">
-        <f>"|"</f>
-        <v/>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L37" si="0">"Собеседования в 7-й математический класс 179-й школы"</f>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M37" si="1">"|"</f>
+        <v>|</v>
       </c>
       <c r="N2" t="s">
         <v>53</v>
@@ -992,40 +1088,40 @@
       <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2">
-        <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="3">
-        <f>SUM(R2:Z2)</f>
-        <v/>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q37" si="2">"|"</f>
+        <v>|</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" ref="AA2:AA37" si="3">SUM(R2:Z2)</f>
+        <v>22</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>56</v>
@@ -1048,55 +1144,53 @@
       <c r="AH2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="3">
-        <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</f>
-        <v/>
+      <c r="AK2" s="4">
+        <f t="shared" ref="AK2:AK37" si="4">ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))+IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))+IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))+IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))+IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))+IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))+IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))+IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))+IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?"))))))))),2)</f>
+        <v>2.8</v>
       </c>
       <c r="AL2">
-        <f>ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
-        <v/>
+        <f t="shared" ref="AL2:AL37" si="5">ROUND(IF(AB2="+",1,IF(AB2="+.",1,IF(AB2="+-",0.8,IF(AB2="+/2",0.5,IF(AB2="-+",0.1,IF(AB2="-.",0,IF(AB2="-",0,IF(AB2="0",0,IF(AB2="",0,"?")))))))))*R2,2)</f>
+        <v>2</v>
       </c>
       <c r="AM2">
-        <f>ROUND(IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))*S2,2)</f>
-        <v/>
+        <f t="shared" ref="AM2:AM37" si="6">ROUND(IF(AC2="+",1,IF(AC2="+.",1,IF(AC2="+-",0.8,IF(AC2="+/2",0.5,IF(AC2="-+",0.1,IF(AC2="-.",0,IF(AC2="-",0,IF(AC2="0",0,IF(AC2="",0,"?")))))))))*S2,2)</f>
+        <v>2.4</v>
       </c>
       <c r="AN2">
-        <f>ROUND(IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))*T2,2)</f>
-        <v/>
+        <f t="shared" ref="AN2:AN37" si="7">ROUND(IF(AD2="+",1,IF(AD2="+.",1,IF(AD2="+-",0.8,IF(AD2="+/2",0.5,IF(AD2="-+",0.1,IF(AD2="-.",0,IF(AD2="-",0,IF(AD2="0",0,IF(AD2="",0,"?")))))))))*T2,2)</f>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <f>ROUND(IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))*U2,2)</f>
-        <v/>
+        <f t="shared" ref="AO2:AO37" si="8">ROUND(IF(AE2="+",1,IF(AE2="+.",1,IF(AE2="+-",0.8,IF(AE2="+/2",0.5,IF(AE2="-+",0.1,IF(AE2="-.",0,IF(AE2="-",0,IF(AE2="0",0,IF(AE2="",0,"?")))))))))*U2,2)</f>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <f>ROUND(IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))*V2,2)</f>
-        <v/>
+        <f t="shared" ref="AP2:AP37" si="9">ROUND(IF(AF2="+",1,IF(AF2="+.",1,IF(AF2="+-",0.8,IF(AF2="+/2",0.5,IF(AF2="-+",0.1,IF(AF2="-.",0,IF(AF2="-",0,IF(AF2="0",0,IF(AF2="",0,"?")))))))))*V2,2)</f>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <f>ROUND(IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))*W2,2)</f>
-        <v/>
+        <f t="shared" ref="AQ2:AQ37" si="10">ROUND(IF(AG2="+",1,IF(AG2="+.",1,IF(AG2="+-",0.8,IF(AG2="+/2",0.5,IF(AG2="-+",0.1,IF(AG2="-.",0,IF(AG2="-",0,IF(AG2="0",0,IF(AG2="",0,"?")))))))))*W2,2)</f>
+        <v>3</v>
       </c>
       <c r="AR2">
-        <f>ROUND(IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))*X2,2)</f>
-        <v/>
+        <f t="shared" ref="AR2:AR37" si="11">ROUND(IF(AH2="+",1,IF(AH2="+.",1,IF(AH2="+-",0.8,IF(AH2="+/2",0.5,IF(AH2="-+",0.1,IF(AH2="-.",0,IF(AH2="-",0,IF(AH2="0",0,IF(AH2="",0,"?")))))))))*X2,2)</f>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <f>ROUND(IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))*Y2,2)</f>
-        <v/>
+        <f t="shared" ref="AS2:AS37" si="12">ROUND(IF(AI2="+",1,IF(AI2="+.",1,IF(AI2="+-",0.8,IF(AI2="+/2",0.5,IF(AI2="-+",0.1,IF(AI2="-.",0,IF(AI2="-",0,IF(AI2="0",0,IF(AI2="",0,"?")))))))))*Y2,2)</f>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <f>ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</f>
-        <v/>
-      </c>
-      <c r="AU2" s="3">
-        <f>SUM(AL2:AT2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:47">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="AT2:AT37" si="13">ROUND(IF(AJ2="+",1,IF(AJ2="+.",1,IF(AJ2="+-",0.8,IF(AJ2="+/2",0.5,IF(AJ2="-+",0.1,IF(AJ2="-.",0,IF(AJ2="-",0,IF(AJ2="0",0,IF(AJ2="",0,"?")))))))))*Z2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4">
+        <f t="shared" ref="AU2:AU37" si="14">SUM(AL2:AT2)</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>60</v>
       </c>
@@ -1109,28 +1203,28 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>306</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>234</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2002</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="L3">
-        <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M3">
-        <f>"|"</f>
-        <v/>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -1141,40 +1235,40 @@
       <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3">
-        <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3">
-        <f>SUM(R3:Z3)</f>
-        <v/>
+      <c r="Q3" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -1197,53 +1291,53 @@
       <c r="AH3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="3">
-        <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))+IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))+IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))+IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))+IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))+IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))+IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))+IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))+IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?"))))))))),2)</f>
-        <v/>
+      <c r="AK3" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="AL3">
-        <f>ROUND(IF(AB3="+",1,IF(AB3="+.",1,IF(AB3="+-",0.8,IF(AB3="+/2",0.5,IF(AB3="-+",0.1,IF(AB3="-.",0,IF(AB3="-",0,IF(AB3="0",0,IF(AB3="",0,"?")))))))))*R3,2)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <f>ROUND(IF(AC3="+",1,IF(AC3="+.",1,IF(AC3="+-",0.8,IF(AC3="+/2",0.5,IF(AC3="-+",0.1,IF(AC3="-.",0,IF(AC3="-",0,IF(AC3="0",0,IF(AC3="",0,"?")))))))))*S3,2)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <f>ROUND(IF(AD3="+",1,IF(AD3="+.",1,IF(AD3="+-",0.8,IF(AD3="+/2",0.5,IF(AD3="-+",0.1,IF(AD3="-.",0,IF(AD3="-",0,IF(AD3="0",0,IF(AD3="",0,"?")))))))))*T3,2)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <f>ROUND(IF(AE3="+",1,IF(AE3="+.",1,IF(AE3="+-",0.8,IF(AE3="+/2",0.5,IF(AE3="-+",0.1,IF(AE3="-.",0,IF(AE3="-",0,IF(AE3="0",0,IF(AE3="",0,"?")))))))))*U3,2)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="AP3">
-        <f>ROUND(IF(AF3="+",1,IF(AF3="+.",1,IF(AF3="+-",0.8,IF(AF3="+/2",0.5,IF(AF3="-+",0.1,IF(AF3="-.",0,IF(AF3="-",0,IF(AF3="0",0,IF(AF3="",0,"?")))))))))*V3,2)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <f>ROUND(IF(AG3="+",1,IF(AG3="+.",1,IF(AG3="+-",0.8,IF(AG3="+/2",0.5,IF(AG3="-+",0.1,IF(AG3="-.",0,IF(AG3="-",0,IF(AG3="0",0,IF(AG3="",0,"?")))))))))*W3,2)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>1.5</v>
       </c>
       <c r="AR3">
-        <f>ROUND(IF(AH3="+",1,IF(AH3="+.",1,IF(AH3="+-",0.8,IF(AH3="+/2",0.5,IF(AH3="-+",0.1,IF(AH3="-.",0,IF(AH3="-",0,IF(AH3="0",0,IF(AH3="",0,"?")))))))))*X3,2)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <f>ROUND(IF(AI3="+",1,IF(AI3="+.",1,IF(AI3="+-",0.8,IF(AI3="+/2",0.5,IF(AI3="-+",0.1,IF(AI3="-.",0,IF(AI3="-",0,IF(AI3="0",0,IF(AI3="",0,"?")))))))))*Y3,2)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <f>ROUND(IF(AJ3="+",1,IF(AJ3="+.",1,IF(AJ3="+-",0.8,IF(AJ3="+/2",0.5,IF(AJ3="-+",0.1,IF(AJ3="-.",0,IF(AJ3="-",0,IF(AJ3="0",0,IF(AJ3="",0,"?")))))))))*Z3,2)</f>
-        <v/>
-      </c>
-      <c r="AU3" s="3">
-        <f>SUM(AL3:AT3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:47">
-      <c r="A4" t="s">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -1258,28 +1352,28 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>305</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>123</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2003</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="L4">
-        <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M4">
-        <f>"|"</f>
-        <v/>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -1290,40 +1384,40 @@
       <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4">
-        <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="3">
-        <f>SUM(R4:Z4)</f>
-        <v/>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>58</v>
@@ -1346,55 +1440,53 @@
       <c r="AH4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK4" s="3">
-        <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))+IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))+IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))+IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))+IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))+IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))+IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))+IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))+IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?"))))))))),2)</f>
-        <v/>
+      <c r="AK4" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AL4">
-        <f>ROUND(IF(AB4="+",1,IF(AB4="+.",1,IF(AB4="+-",0.8,IF(AB4="+/2",0.5,IF(AB4="-+",0.1,IF(AB4="-.",0,IF(AB4="-",0,IF(AB4="0",0,IF(AB4="",0,"?")))))))))*R4,2)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <f>ROUND(IF(AC4="+",1,IF(AC4="+.",1,IF(AC4="+-",0.8,IF(AC4="+/2",0.5,IF(AC4="-+",0.1,IF(AC4="-.",0,IF(AC4="-",0,IF(AC4="0",0,IF(AC4="",0,"?")))))))))*S4,2)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <f>ROUND(IF(AD4="+",1,IF(AD4="+.",1,IF(AD4="+-",0.8,IF(AD4="+/2",0.5,IF(AD4="-+",0.1,IF(AD4="-.",0,IF(AD4="-",0,IF(AD4="0",0,IF(AD4="",0,"?")))))))))*T4,2)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AO4">
-        <f>ROUND(IF(AE4="+",1,IF(AE4="+.",1,IF(AE4="+-",0.8,IF(AE4="+/2",0.5,IF(AE4="-+",0.1,IF(AE4="-.",0,IF(AE4="-",0,IF(AE4="0",0,IF(AE4="",0,"?")))))))))*U4,2)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="AP4">
-        <f>ROUND(IF(AF4="+",1,IF(AF4="+.",1,IF(AF4="+-",0.8,IF(AF4="+/2",0.5,IF(AF4="-+",0.1,IF(AF4="-.",0,IF(AF4="-",0,IF(AF4="0",0,IF(AF4="",0,"?")))))))))*V4,2)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <f>ROUND(IF(AG4="+",1,IF(AG4="+.",1,IF(AG4="+-",0.8,IF(AG4="+/2",0.5,IF(AG4="-+",0.1,IF(AG4="-.",0,IF(AG4="-",0,IF(AG4="0",0,IF(AG4="",0,"?")))))))))*W4,2)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>0.3</v>
       </c>
       <c r="AR4">
-        <f>ROUND(IF(AH4="+",1,IF(AH4="+.",1,IF(AH4="+-",0.8,IF(AH4="+/2",0.5,IF(AH4="-+",0.1,IF(AH4="-.",0,IF(AH4="-",0,IF(AH4="0",0,IF(AH4="",0,"?")))))))))*X4,2)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="AS4">
-        <f>ROUND(IF(AI4="+",1,IF(AI4="+.",1,IF(AI4="+-",0.8,IF(AI4="+/2",0.5,IF(AI4="-+",0.1,IF(AI4="-.",0,IF(AI4="-",0,IF(AI4="0",0,IF(AI4="",0,"?")))))))))*Y4,2)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <f>ROUND(IF(AJ4="+",1,IF(AJ4="+.",1,IF(AJ4="+-",0.8,IF(AJ4="+/2",0.5,IF(AJ4="-+",0.1,IF(AJ4="-.",0,IF(AJ4="-",0,IF(AJ4="0",0,IF(AJ4="",0,"?")))))))))*Z4,2)</f>
-        <v/>
-      </c>
-      <c r="AU4" s="3">
-        <f>SUM(AL4:AT4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5"/>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1407,16 +1499,16 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>207</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>432</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2004</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="J5" t="s">
@@ -1425,13 +1517,13 @@
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5">
-        <f>"Собеседования в 7-й математический класс 179-й школы"</f>
-        <v/>
-      </c>
-      <c r="M5">
-        <f>"|"</f>
-        <v/>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -1442,40 +1534,40 @@
       <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5">
-        <f>"|"</f>
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="3">
-        <f>SUM(R5:Z5)</f>
-        <v/>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>56</v>
@@ -1498,62 +1590,5000 @@
       <c r="AH5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK5" s="3">
-        <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))+IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))+IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))+IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))+IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))+IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))+IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))+IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))+IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?"))))))))),2)</f>
-        <v/>
+      <c r="AK5" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AL5">
-        <f>ROUND(IF(AB5="+",1,IF(AB5="+.",1,IF(AB5="+-",0.8,IF(AB5="+/2",0.5,IF(AB5="-+",0.1,IF(AB5="-.",0,IF(AB5="-",0,IF(AB5="0",0,IF(AB5="",0,"?")))))))))*R5,2)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="AM5">
-        <f>ROUND(IF(AC5="+",1,IF(AC5="+.",1,IF(AC5="+-",0.8,IF(AC5="+/2",0.5,IF(AC5="-+",0.1,IF(AC5="-.",0,IF(AC5="-",0,IF(AC5="0",0,IF(AC5="",0,"?")))))))))*S5,2)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="AN5">
-        <f>ROUND(IF(AD5="+",1,IF(AD5="+.",1,IF(AD5="+-",0.8,IF(AD5="+/2",0.5,IF(AD5="-+",0.1,IF(AD5="-.",0,IF(AD5="-",0,IF(AD5="0",0,IF(AD5="",0,"?")))))))))*T5,2)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <f>ROUND(IF(AE5="+",1,IF(AE5="+.",1,IF(AE5="+-",0.8,IF(AE5="+/2",0.5,IF(AE5="-+",0.1,IF(AE5="-.",0,IF(AE5="-",0,IF(AE5="0",0,IF(AE5="",0,"?")))))))))*U5,2)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <f>ROUND(IF(AF5="+",1,IF(AF5="+.",1,IF(AF5="+-",0.8,IF(AF5="+/2",0.5,IF(AF5="-+",0.1,IF(AF5="-.",0,IF(AF5="-",0,IF(AF5="0",0,IF(AF5="",0,"?")))))))))*V5,2)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <f>ROUND(IF(AG5="+",1,IF(AG5="+.",1,IF(AG5="+-",0.8,IF(AG5="+/2",0.5,IF(AG5="-+",0.1,IF(AG5="-.",0,IF(AG5="-",0,IF(AG5="0",0,IF(AG5="",0,"?")))))))))*W5,2)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <f>ROUND(IF(AH5="+",1,IF(AH5="+.",1,IF(AH5="+-",0.8,IF(AH5="+/2",0.5,IF(AH5="-+",0.1,IF(AH5="-.",0,IF(AH5="-",0,IF(AH5="0",0,IF(AH5="",0,"?")))))))))*X5,2)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <f>ROUND(IF(AI5="+",1,IF(AI5="+.",1,IF(AI5="+-",0.8,IF(AI5="+/2",0.5,IF(AI5="-+",0.1,IF(AI5="-.",0,IF(AI5="-",0,IF(AI5="0",0,IF(AI5="",0,"?")))))))))*Y5,2)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <f>ROUND(IF(AJ5="+",1,IF(AJ5="+.",1,IF(AJ5="+-",0.8,IF(AJ5="+/2",0.5,IF(AJ5="-+",0.1,IF(AJ5="-.",0,IF(AJ5="-",0,IF(AJ5="0",0,IF(AJ5="",0,"?")))))))))*Z5,2)</f>
-        <v/>
-      </c>
-      <c r="AU5" s="3">
-        <f>SUM(AL5:AT5)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>305</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <v>2001</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>306</v>
+      </c>
+      <c r="G7">
+        <v>234</v>
+      </c>
+      <c r="H7">
+        <v>2002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>305</v>
+      </c>
+      <c r="G8">
+        <v>123</v>
+      </c>
+      <c r="H8">
+        <v>2003</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>207</v>
+      </c>
+      <c r="G9">
+        <v>432</v>
+      </c>
+      <c r="H9">
+        <v>2004</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>305</v>
+      </c>
+      <c r="G10">
+        <v>123</v>
+      </c>
+      <c r="H10">
+        <v>2001</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK10" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>306</v>
+      </c>
+      <c r="G11">
+        <v>234</v>
+      </c>
+      <c r="H11">
+        <v>2002</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>305</v>
+      </c>
+      <c r="G12">
+        <v>123</v>
+      </c>
+      <c r="H12">
+        <v>2003</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>207</v>
+      </c>
+      <c r="G13">
+        <v>432</v>
+      </c>
+      <c r="H13">
+        <v>2004</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>305</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+      <c r="H14">
+        <v>2001</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>306</v>
+      </c>
+      <c r="G15">
+        <v>234</v>
+      </c>
+      <c r="H15">
+        <v>2002</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>305</v>
+      </c>
+      <c r="G16">
+        <v>123</v>
+      </c>
+      <c r="H16">
+        <v>2003</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>207</v>
+      </c>
+      <c r="G17">
+        <v>432</v>
+      </c>
+      <c r="H17">
+        <v>2004</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>305</v>
+      </c>
+      <c r="G18">
+        <v>123</v>
+      </c>
+      <c r="H18">
+        <v>2001</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>306</v>
+      </c>
+      <c r="G19">
+        <v>234</v>
+      </c>
+      <c r="H19">
+        <v>2002</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20">
+        <v>305</v>
+      </c>
+      <c r="G20">
+        <v>123</v>
+      </c>
+      <c r="H20">
+        <v>2003</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK20" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>207</v>
+      </c>
+      <c r="G21">
+        <v>432</v>
+      </c>
+      <c r="H21">
+        <v>2004</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>305</v>
+      </c>
+      <c r="G22">
+        <v>123</v>
+      </c>
+      <c r="H22">
+        <v>2001</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK22" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23">
+        <v>306</v>
+      </c>
+      <c r="G23">
+        <v>234</v>
+      </c>
+      <c r="H23">
+        <v>2002</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>305</v>
+      </c>
+      <c r="G24">
+        <v>123</v>
+      </c>
+      <c r="H24">
+        <v>2003</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>207</v>
+      </c>
+      <c r="G25">
+        <v>432</v>
+      </c>
+      <c r="H25">
+        <v>2004</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK25" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>305</v>
+      </c>
+      <c r="G26">
+        <v>123</v>
+      </c>
+      <c r="H26">
+        <v>2001</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>306</v>
+      </c>
+      <c r="G27">
+        <v>234</v>
+      </c>
+      <c r="H27">
+        <v>2002</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK27" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <v>305</v>
+      </c>
+      <c r="G28">
+        <v>123</v>
+      </c>
+      <c r="H28">
+        <v>2003</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>207</v>
+      </c>
+      <c r="G29">
+        <v>432</v>
+      </c>
+      <c r="H29">
+        <v>2004</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK29" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>305</v>
+      </c>
+      <c r="G30">
+        <v>123</v>
+      </c>
+      <c r="H30">
+        <v>2001</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK30" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <v>306</v>
+      </c>
+      <c r="G31">
+        <v>234</v>
+      </c>
+      <c r="H31">
+        <v>2002</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>305</v>
+      </c>
+      <c r="G32">
+        <v>123</v>
+      </c>
+      <c r="H32">
+        <v>2003</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK32" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>207</v>
+      </c>
+      <c r="G33">
+        <v>432</v>
+      </c>
+      <c r="H33">
+        <v>2004</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>305</v>
+      </c>
+      <c r="G34">
+        <v>123</v>
+      </c>
+      <c r="H34">
+        <v>2001</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU34" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <v>306</v>
+      </c>
+      <c r="G35">
+        <v>234</v>
+      </c>
+      <c r="H35">
+        <v>2002</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="4">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>305</v>
+      </c>
+      <c r="G36">
+        <v>123</v>
+      </c>
+      <c r="H36">
+        <v>2003</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK36" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="4">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
+        <v>207</v>
+      </c>
+      <c r="G37">
+        <v>432</v>
+      </c>
+      <c r="H37">
+        <v>2004</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>Собеседования в 7-й математический класс 179-й школы</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="N37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK37" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>